--- a/Code/Results/Cases/Case_0_206/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_206/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9631615364522806</v>
+        <v>1.030562134411285</v>
       </c>
       <c r="D2">
-        <v>0.9719435915918958</v>
+        <v>1.033206538173445</v>
       </c>
       <c r="E2">
-        <v>0.9794004036677756</v>
+        <v>1.038875712721937</v>
       </c>
       <c r="F2">
-        <v>0.9802770052120382</v>
+        <v>1.046786514459899</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045224098310553</v>
+        <v>1.02359499962809</v>
       </c>
       <c r="J2">
-        <v>0.9865028204489628</v>
+        <v>1.035702694217099</v>
       </c>
       <c r="K2">
-        <v>0.9838081472987826</v>
+        <v>1.036009554240408</v>
       </c>
       <c r="L2">
-        <v>0.9911543844429505</v>
+        <v>1.041662500047411</v>
       </c>
       <c r="M2">
-        <v>0.9920181273821026</v>
+        <v>1.049550974837245</v>
       </c>
       <c r="N2">
-        <v>0.9879037676074552</v>
+        <v>1.037173510839646</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.971175974746608</v>
+        <v>1.03215381108919</v>
       </c>
       <c r="D3">
-        <v>0.9792278768391841</v>
+        <v>1.03471179359483</v>
       </c>
       <c r="E3">
-        <v>0.9864704028599388</v>
+        <v>1.04033598946218</v>
       </c>
       <c r="F3">
-        <v>0.9881742511949487</v>
+        <v>1.048434650840371</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045318143171977</v>
+        <v>1.023504579208684</v>
       </c>
       <c r="J3">
-        <v>0.9924844914772611</v>
+        <v>1.036932603174502</v>
       </c>
       <c r="K3">
-        <v>0.9901336261915792</v>
+        <v>1.0373218830727</v>
       </c>
       <c r="L3">
-        <v>0.9972793753379299</v>
+        <v>1.042931164785066</v>
       </c>
       <c r="M3">
-        <v>0.998960714831282</v>
+        <v>1.051008653747325</v>
       </c>
       <c r="N3">
-        <v>0.9938939332947213</v>
+        <v>1.038405166408842</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9761978668671739</v>
+        <v>1.033182472109807</v>
       </c>
       <c r="D4">
-        <v>0.9837994253372837</v>
+        <v>1.035684889488325</v>
       </c>
       <c r="E4">
-        <v>0.9909078031091717</v>
+        <v>1.041279939445195</v>
       </c>
       <c r="F4">
-        <v>0.9931322457506161</v>
+        <v>1.049500404049909</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045357368412754</v>
+        <v>1.023443335729026</v>
       </c>
       <c r="J4">
-        <v>0.996230673021367</v>
+        <v>1.037726867828675</v>
       </c>
       <c r="K4">
-        <v>0.994097391233241</v>
+        <v>1.038169651329703</v>
       </c>
       <c r="L4">
-        <v>1.001117215910692</v>
+        <v>1.043750624640979</v>
       </c>
       <c r="M4">
-        <v>1.003314271384055</v>
+        <v>1.051950700288228</v>
       </c>
       <c r="N4">
-        <v>0.997645434846313</v>
+        <v>1.039200559009927</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.978272273874582</v>
+        <v>1.033614629190544</v>
       </c>
       <c r="D5">
-        <v>0.9856894282036779</v>
+        <v>1.036093770649095</v>
       </c>
       <c r="E5">
-        <v>0.9927424072712419</v>
+        <v>1.041676557336047</v>
       </c>
       <c r="F5">
-        <v>0.9951824565088817</v>
+        <v>1.049948288000721</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045368675785518</v>
+        <v>1.023416932628374</v>
       </c>
       <c r="J5">
-        <v>0.9977775629871796</v>
+        <v>1.038060408364389</v>
       </c>
       <c r="K5">
-        <v>0.9957346703572804</v>
+        <v>1.03852572640306</v>
       </c>
       <c r="L5">
-        <v>1.002702400082975</v>
+        <v>1.044094785471043</v>
       </c>
       <c r="M5">
-        <v>1.005113305250113</v>
+        <v>1.052346465061967</v>
       </c>
       <c r="N5">
-        <v>0.9991945215733076</v>
+        <v>1.039534573211459</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9786184855027492</v>
+        <v>1.033687173422782</v>
       </c>
       <c r="D6">
-        <v>0.986004955932697</v>
+        <v>1.036162411617872</v>
       </c>
       <c r="E6">
-        <v>0.9930486895507044</v>
+        <v>1.041743138632082</v>
       </c>
       <c r="F6">
-        <v>0.9955247566788457</v>
+        <v>1.05002348064651</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04537027023839</v>
+        <v>1.023412460900047</v>
       </c>
       <c r="J6">
-        <v>0.9980356987763334</v>
+        <v>1.038116389898298</v>
       </c>
       <c r="K6">
-        <v>0.996007921738705</v>
+        <v>1.03858549403571</v>
       </c>
       <c r="L6">
-        <v>1.002966952135627</v>
+        <v>1.044152551856734</v>
       </c>
       <c r="M6">
-        <v>1.005413596547618</v>
+        <v>1.052412900023368</v>
       </c>
       <c r="N6">
-        <v>0.9994530239448907</v>
+        <v>1.039590634245568</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.976225726696044</v>
+        <v>1.033188247747824</v>
       </c>
       <c r="D7">
-        <v>0.9838248022811168</v>
+        <v>1.035690353785498</v>
       </c>
       <c r="E7">
-        <v>0.9909324359970556</v>
+        <v>1.041285239921015</v>
       </c>
       <c r="F7">
-        <v>0.993159772027602</v>
+        <v>1.049506389307971</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045357539874439</v>
+        <v>1.02344298551034</v>
       </c>
       <c r="J7">
-        <v>0.9962514504645809</v>
+        <v>1.037731326050824</v>
       </c>
       <c r="K7">
-        <v>0.9941193806080205</v>
+        <v>1.038174410495421</v>
       </c>
       <c r="L7">
-        <v>1.001138505958935</v>
+        <v>1.043755224660984</v>
       </c>
       <c r="M7">
-        <v>1.003338430231413</v>
+        <v>1.051955989572085</v>
       </c>
       <c r="N7">
-        <v>0.997666241795879</v>
+        <v>1.039205023563263</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9659055656919445</v>
+        <v>1.031100315779474</v>
       </c>
       <c r="D8">
-        <v>0.9744360455692541</v>
+        <v>1.033715438695404</v>
       </c>
       <c r="E8">
-        <v>0.9818194527766108</v>
+        <v>1.039369420912191</v>
       </c>
       <c r="F8">
-        <v>0.9829788360576179</v>
+        <v>1.047343660600443</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045260356825638</v>
+        <v>1.023565007130014</v>
       </c>
       <c r="J8">
-        <v>0.9885512211688456</v>
+        <v>1.036118676871632</v>
       </c>
       <c r="K8">
-        <v>0.9859738049920334</v>
+        <v>1.036453355580747</v>
       </c>
       <c r="L8">
-        <v>0.9932514559177913</v>
+        <v>1.042091556089259</v>
       </c>
       <c r="M8">
-        <v>0.9943944152235284</v>
+        <v>1.050043851354095</v>
       </c>
       <c r="N8">
-        <v>0.9899550772913152</v>
+        <v>1.037590084237263</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9463396322391046</v>
+        <v>1.027411026080918</v>
       </c>
       <c r="D9">
-        <v>0.9566998830665296</v>
+        <v>1.030228081309539</v>
       </c>
       <c r="E9">
-        <v>0.9646079718147796</v>
+        <v>1.03598589458151</v>
       </c>
       <c r="F9">
-        <v>0.9637595051679521</v>
+        <v>1.043526873432085</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044923609578788</v>
+        <v>1.023759139049229</v>
       </c>
       <c r="J9">
-        <v>0.9739407552041985</v>
+        <v>1.033264644288842</v>
       </c>
       <c r="K9">
-        <v>0.970536843778347</v>
+        <v>1.033409603510073</v>
       </c>
       <c r="L9">
-        <v>0.9783026038021807</v>
+        <v>1.039148518373584</v>
       </c>
       <c r="M9">
-        <v>0.9774692625140262</v>
+        <v>1.046665091508326</v>
       </c>
       <c r="N9">
-        <v>0.9753238627891544</v>
+        <v>1.034731998600844</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9321671191486496</v>
+        <v>1.024944108354035</v>
       </c>
       <c r="D10">
-        <v>0.9439052283984574</v>
+        <v>1.027897741601418</v>
       </c>
       <c r="E10">
-        <v>0.9521959724821144</v>
+        <v>1.033724593018178</v>
       </c>
       <c r="F10">
-        <v>0.9499024684928281</v>
+        <v>1.040977882752944</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044587919160615</v>
+        <v>1.023874603872166</v>
       </c>
       <c r="J10">
-        <v>0.9633568714629851</v>
+        <v>1.031353204922555</v>
       </c>
       <c r="K10">
-        <v>0.9593669516657011</v>
+        <v>1.031372540575155</v>
       </c>
       <c r="L10">
-        <v>0.9674855337079338</v>
+        <v>1.037178341101314</v>
       </c>
       <c r="M10">
-        <v>0.9652392586748416</v>
+        <v>1.044405789712117</v>
       </c>
       <c r="N10">
-        <v>0.9647249487190399</v>
+        <v>1.032817844771411</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9257083297708969</v>
+        <v>1.023874016672766</v>
       </c>
       <c r="D11">
-        <v>0.9380891751369037</v>
+        <v>1.026887272776325</v>
       </c>
       <c r="E11">
-        <v>0.9465552829124266</v>
+        <v>1.032743979980414</v>
       </c>
       <c r="F11">
-        <v>0.9436048811429565</v>
+        <v>1.039872953408708</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.0444161704399</v>
+        <v>1.023921309042974</v>
       </c>
       <c r="J11">
-        <v>0.9585352061905966</v>
+        <v>1.030523353244349</v>
       </c>
       <c r="K11">
-        <v>0.9542813632833353</v>
+        <v>1.030488490769379</v>
       </c>
       <c r="L11">
-        <v>0.9625607335816179</v>
+        <v>1.036323196263314</v>
       </c>
       <c r="M11">
-        <v>0.9596749032796189</v>
+        <v>1.04342575841341</v>
       </c>
       <c r="N11">
-        <v>0.9598964361289123</v>
+        <v>1.031986814608636</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.923255355351819</v>
+        <v>1.02347623975599</v>
       </c>
       <c r="D12">
-        <v>0.9358827611955095</v>
+        <v>1.0265117167408</v>
       </c>
       <c r="E12">
-        <v>0.9444156526072963</v>
+        <v>1.03237950838875</v>
       </c>
       <c r="F12">
-        <v>0.9412159587873088</v>
+        <v>1.039462342069674</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044348406001364</v>
+        <v>1.023938164268129</v>
       </c>
       <c r="J12">
-        <v>0.9567044346310556</v>
+        <v>1.030214772162489</v>
       </c>
       <c r="K12">
-        <v>0.9523508405516744</v>
+        <v>1.030159807381616</v>
       </c>
       <c r="L12">
-        <v>0.960691293378641</v>
+        <v>1.036005241231161</v>
       </c>
       <c r="M12">
-        <v>0.9575632158548893</v>
+        <v>1.043061459799598</v>
       </c>
       <c r="N12">
-        <v>0.9580630646637642</v>
+        <v>1.031677795306246</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9237840636994175</v>
+        <v>1.023561577894622</v>
       </c>
       <c r="D13">
-        <v>0.9363582116088401</v>
+        <v>1.026592285036534</v>
       </c>
       <c r="E13">
-        <v>0.9448766997751173</v>
+        <v>1.032457699267964</v>
       </c>
       <c r="F13">
-        <v>0.9417307301876384</v>
+        <v>1.039550428436437</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044363121405789</v>
+        <v>1.023934571058996</v>
       </c>
       <c r="J13">
-        <v>0.9570990116155875</v>
+        <v>1.03028097925438</v>
       </c>
       <c r="K13">
-        <v>0.9527668956255873</v>
+        <v>1.030230325167483</v>
       </c>
       <c r="L13">
-        <v>0.9610941817977691</v>
+        <v>1.03607345811585</v>
       </c>
       <c r="M13">
-        <v>0.9580182885154682</v>
+        <v>1.043139615531749</v>
       </c>
       <c r="N13">
-        <v>0.9584582019928728</v>
+        <v>1.031744096419801</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9255067005831324</v>
+        <v>1.023841142440326</v>
       </c>
       <c r="D14">
-        <v>0.9379077614857639</v>
+        <v>1.026856233803733</v>
       </c>
       <c r="E14">
-        <v>0.9463793548126956</v>
+        <v>1.032713857357641</v>
       </c>
       <c r="F14">
-        <v>0.9434084582756614</v>
+        <v>1.039839016116396</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044410650012188</v>
+        <v>1.023922712353276</v>
       </c>
       <c r="J14">
-        <v>0.9583847106116132</v>
+        <v>1.030497852766341</v>
       </c>
       <c r="K14">
-        <v>0.9541226584960689</v>
+        <v>1.03046132803334</v>
       </c>
       <c r="L14">
-        <v>0.9624070491938956</v>
+        <v>1.036296920502645</v>
       </c>
       <c r="M14">
-        <v>0.9595012935936218</v>
+        <v>1.04339565097078</v>
       </c>
       <c r="N14">
-        <v>0.9597457268289445</v>
+        <v>1.031961277917025</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9265607527685421</v>
+        <v>1.024013351645638</v>
       </c>
       <c r="D15">
-        <v>0.9388562345368505</v>
+        <v>1.027018831506691</v>
       </c>
       <c r="E15">
-        <v>0.9472991588060786</v>
+        <v>1.03287165427383</v>
       </c>
       <c r="F15">
-        <v>0.9444354096495746</v>
+        <v>1.04001679881495</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044439407833738</v>
+        <v>1.023915340507297</v>
       </c>
       <c r="J15">
-        <v>0.9591714719388855</v>
+        <v>1.030631430744718</v>
       </c>
       <c r="K15">
-        <v>0.9549523546228573</v>
+        <v>1.030603615442074</v>
       </c>
       <c r="L15">
-        <v>0.9632105010937987</v>
+        <v>1.036434560891633</v>
       </c>
       <c r="M15">
-        <v>0.9604089347933357</v>
+        <v>1.043553366593535</v>
       </c>
       <c r="N15">
-        <v>0.9605336054475442</v>
+        <v>1.032095045591453</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9325885322831408</v>
+        <v>1.02501508578135</v>
       </c>
       <c r="D16">
-        <v>0.9442850295037166</v>
+        <v>1.027964772385559</v>
       </c>
       <c r="E16">
-        <v>0.9525643547690531</v>
+        <v>1.033789641602625</v>
       </c>
       <c r="F16">
-        <v>0.9503137403626675</v>
+        <v>1.041051187050346</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044598761177637</v>
+        <v>1.023871434968932</v>
       </c>
       <c r="J16">
-        <v>0.9636715180766661</v>
+        <v>1.031408232641062</v>
       </c>
       <c r="K16">
-        <v>0.959698884050903</v>
+        <v>1.031431169375307</v>
       </c>
       <c r="L16">
-        <v>0.9678069765796521</v>
+        <v>1.03723505040118</v>
       </c>
       <c r="M16">
-        <v>0.9656025196495379</v>
+        <v>1.044470793666129</v>
       </c>
       <c r="N16">
-        <v>0.9650400421670029</v>
+        <v>1.032872950635591</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9362797602781076</v>
+        <v>1.025642930172392</v>
       </c>
       <c r="D17">
-        <v>0.9476134596778867</v>
+        <v>1.028557749781807</v>
       </c>
       <c r="E17">
-        <v>0.9557928792196205</v>
+        <v>1.034365074542138</v>
       </c>
       <c r="F17">
-        <v>0.9539181205767989</v>
+        <v>1.041699702452389</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044691650831722</v>
+        <v>1.023843013862359</v>
       </c>
       <c r="J17">
-        <v>0.9664277700794953</v>
+        <v>1.031894908533826</v>
       </c>
       <c r="K17">
-        <v>0.9626068988463625</v>
+        <v>1.031949733322233</v>
       </c>
       <c r="L17">
-        <v>0.9706231135535898</v>
+        <v>1.037736622525416</v>
       </c>
       <c r="M17">
-        <v>0.9687854372895585</v>
+        <v>1.045045798800249</v>
       </c>
       <c r="N17">
-        <v>0.9678002083638229</v>
+        <v>1.033360317663944</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9384021380649156</v>
+        <v>1.026008958657824</v>
       </c>
       <c r="D18">
-        <v>0.9495286053607264</v>
+        <v>1.028903487495892</v>
       </c>
       <c r="E18">
-        <v>0.9576506701445334</v>
+        <v>1.034700575159188</v>
       </c>
       <c r="F18">
-        <v>0.9559921783832661</v>
+        <v>1.042077855533128</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044743285667331</v>
+        <v>1.023826118601784</v>
       </c>
       <c r="J18">
-        <v>0.9680127013520218</v>
+        <v>1.032178568048326</v>
       </c>
       <c r="K18">
-        <v>0.9642793830067752</v>
+        <v>1.032252011703005</v>
       </c>
       <c r="L18">
-        <v>0.9722427684921987</v>
+        <v>1.038028984345275</v>
       </c>
       <c r="M18">
-        <v>0.9706163912141504</v>
+        <v>1.045381022494943</v>
       </c>
       <c r="N18">
-        <v>0.9693873904205501</v>
+        <v>1.033644380007492</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.939120768501475</v>
+        <v>1.026133734307175</v>
       </c>
       <c r="D19">
-        <v>0.9501772935606273</v>
+        <v>1.029021352364181</v>
       </c>
       <c r="E19">
-        <v>0.9582799523155315</v>
+        <v>1.034814948799851</v>
       </c>
       <c r="F19">
-        <v>0.9566947161606906</v>
+        <v>1.042206776794717</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044760460044815</v>
+        <v>1.023820303822167</v>
       </c>
       <c r="J19">
-        <v>0.9685493735408514</v>
+        <v>1.032275253207596</v>
       </c>
       <c r="K19">
-        <v>0.9648457496030576</v>
+        <v>1.032355048667241</v>
       </c>
       <c r="L19">
-        <v>0.9727912465681933</v>
+        <v>1.038128639072815</v>
       </c>
       <c r="M19">
-        <v>0.9712364838192122</v>
+        <v>1.04549529707875</v>
       </c>
       <c r="N19">
-        <v>0.9699248247454453</v>
+        <v>1.033741202470777</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9358869341500696</v>
+        <v>1.025575587375706</v>
       </c>
       <c r="D20">
-        <v>0.9472590991397891</v>
+        <v>1.028494143056313</v>
       </c>
       <c r="E20">
-        <v>0.955449141318431</v>
+        <v>1.03430335055181</v>
       </c>
       <c r="F20">
-        <v>0.9535343674961082</v>
+        <v>1.041630134861107</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044681948034609</v>
+        <v>1.023846096030143</v>
       </c>
       <c r="J20">
-        <v>0.9661344292199825</v>
+        <v>1.031842714632577</v>
       </c>
       <c r="K20">
-        <v>0.9622973766536175</v>
+        <v>1.031894116161543</v>
       </c>
       <c r="L20">
-        <v>0.9703233691730184</v>
+        <v>1.037682828994939</v>
       </c>
       <c r="M20">
-        <v>0.9684466171678673</v>
+        <v>1.044984123545516</v>
       </c>
       <c r="N20">
-        <v>0.9675064509266428</v>
+        <v>1.033308049641369</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9250009633885937</v>
+        <v>1.023758825949247</v>
       </c>
       <c r="D21">
-        <v>0.9374527702997966</v>
+        <v>1.026778513706073</v>
       </c>
       <c r="E21">
-        <v>0.9459381258444123</v>
+        <v>1.032638431564002</v>
       </c>
       <c r="F21">
-        <v>0.9429158260767792</v>
+        <v>1.039754039610723</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044396763635349</v>
+        <v>1.02392621804881</v>
       </c>
       <c r="J21">
-        <v>0.9580072372726796</v>
+        <v>1.030433998302629</v>
       </c>
       <c r="K21">
-        <v>0.9537246021969348</v>
+        <v>1.030393312021792</v>
       </c>
       <c r="L21">
-        <v>0.9620215856674956</v>
+        <v>1.036231125199006</v>
       </c>
       <c r="M21">
-        <v>0.9590658627588463</v>
+        <v>1.043320262487956</v>
       </c>
       <c r="N21">
-        <v>0.9593677174345728</v>
+        <v>1.03189733277265</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9178412973800758</v>
+        <v>1.022614830413417</v>
       </c>
       <c r="D22">
-        <v>0.9310177229626957</v>
+        <v>1.02569853460044</v>
       </c>
       <c r="E22">
-        <v>0.9396983966336208</v>
+        <v>1.031590305474058</v>
       </c>
       <c r="F22">
-        <v>0.9359487620560942</v>
+        <v>1.038573351184446</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044194488544656</v>
+        <v>1.023973741382756</v>
       </c>
       <c r="J22">
-        <v>0.9526647144021624</v>
+        <v>1.029546326963721</v>
       </c>
       <c r="K22">
-        <v>0.9480918651771449</v>
+        <v>1.029447910689423</v>
       </c>
       <c r="L22">
-        <v>0.9565671885628271</v>
+        <v>1.035316547709551</v>
       </c>
       <c r="M22">
-        <v>0.952905629115621</v>
+        <v>1.042272551957323</v>
       </c>
       <c r="N22">
-        <v>0.9540176075687835</v>
+        <v>1.031008400838624</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9216687357341434</v>
+        <v>1.023221451602035</v>
       </c>
       <c r="D23">
-        <v>0.9344563450435134</v>
+        <v>1.026271178097183</v>
       </c>
       <c r="E23">
-        <v>0.9430324894552189</v>
+        <v>1.032146065846888</v>
       </c>
       <c r="F23">
-        <v>0.9396715957714898</v>
+        <v>1.039199365696135</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044303897290665</v>
+        <v>1.023948818288664</v>
       </c>
       <c r="J23">
-        <v>0.9555204153155382</v>
+        <v>1.030017086655979</v>
       </c>
       <c r="K23">
-        <v>0.9511024388785316</v>
+        <v>1.029949258237038</v>
       </c>
       <c r="L23">
-        <v>0.9594824079514658</v>
+        <v>1.035801559348375</v>
       </c>
       <c r="M23">
-        <v>0.9561978234963844</v>
+        <v>1.042828115832001</v>
       </c>
       <c r="N23">
-        <v>0.9568773639050098</v>
+        <v>1.031479829063642</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9360645296886214</v>
+        <v>1.025606017250857</v>
       </c>
       <c r="D24">
-        <v>0.9474193002588994</v>
+        <v>1.028522884617911</v>
       </c>
       <c r="E24">
-        <v>0.9556045397007419</v>
+        <v>1.034331241397906</v>
       </c>
       <c r="F24">
-        <v>0.9537078561288643</v>
+        <v>1.041661569816517</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04468634017905</v>
+        <v>1.023844704313072</v>
       </c>
       <c r="J24">
-        <v>0.9662670473241296</v>
+        <v>1.031866299459807</v>
       </c>
       <c r="K24">
-        <v>0.9624373093825276</v>
+        <v>1.031919247753341</v>
       </c>
       <c r="L24">
-        <v>0.9704588813874372</v>
+        <v>1.037707136583794</v>
       </c>
       <c r="M24">
-        <v>0.9685997941415482</v>
+        <v>1.045011992454706</v>
       </c>
       <c r="N24">
-        <v>0.9676392573637095</v>
+        <v>1.033331667961758</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9515804956230302</v>
+        <v>1.028366053722842</v>
       </c>
       <c r="D25">
-        <v>0.9614424250668616</v>
+        <v>1.031130566094371</v>
       </c>
       <c r="E25">
-        <v>0.969209637295079</v>
+        <v>1.03686157032531</v>
       </c>
       <c r="F25">
-        <v>0.9688972371378626</v>
+        <v>1.044514348941245</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045030265302785</v>
+        <v>1.02371141742819</v>
       </c>
       <c r="J25">
-        <v>0.9778549552751372</v>
+        <v>1.034003988974582</v>
       </c>
       <c r="K25">
-        <v>0.9746703194745332</v>
+        <v>1.034197842754595</v>
       </c>
       <c r="L25">
-        <v>0.9823055112767579</v>
+        <v>1.039910767128192</v>
       </c>
       <c r="M25">
-        <v>0.9819983683393265</v>
+        <v>1.047539741011017</v>
       </c>
       <c r="N25">
-        <v>0.9792436214731588</v>
+        <v>1.035472393240841</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_206/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_206/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.030562134411285</v>
+        <v>0.9631615364522793</v>
       </c>
       <c r="D2">
-        <v>1.033206538173445</v>
+        <v>0.9719435915918944</v>
       </c>
       <c r="E2">
-        <v>1.038875712721937</v>
+        <v>0.979400403667774</v>
       </c>
       <c r="F2">
-        <v>1.046786514459899</v>
+        <v>0.9802770052120365</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.02359499962809</v>
+        <v>1.045224098310553</v>
       </c>
       <c r="J2">
-        <v>1.035702694217099</v>
+        <v>0.9865028204489615</v>
       </c>
       <c r="K2">
-        <v>1.036009554240408</v>
+        <v>0.9838081472987813</v>
       </c>
       <c r="L2">
-        <v>1.041662500047411</v>
+        <v>0.9911543844429492</v>
       </c>
       <c r="M2">
-        <v>1.049550974837245</v>
+        <v>0.9920181273821009</v>
       </c>
       <c r="N2">
-        <v>1.037173510839646</v>
+        <v>0.9879037676074542</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.03215381108919</v>
+        <v>0.9711759747466074</v>
       </c>
       <c r="D3">
-        <v>1.03471179359483</v>
+        <v>0.9792278768391831</v>
       </c>
       <c r="E3">
-        <v>1.04033598946218</v>
+        <v>0.9864704028599379</v>
       </c>
       <c r="F3">
-        <v>1.048434650840371</v>
+        <v>0.9881742511949478</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.023504579208684</v>
+        <v>1.045318143171977</v>
       </c>
       <c r="J3">
-        <v>1.036932603174502</v>
+        <v>0.9924844914772604</v>
       </c>
       <c r="K3">
-        <v>1.0373218830727</v>
+        <v>0.9901336261915782</v>
       </c>
       <c r="L3">
-        <v>1.042931164785066</v>
+        <v>0.9972793753379292</v>
       </c>
       <c r="M3">
-        <v>1.051008653747325</v>
+        <v>0.9989607148312811</v>
       </c>
       <c r="N3">
-        <v>1.038405166408842</v>
+        <v>0.9938939332947202</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.033182472109807</v>
+        <v>0.9761978668671736</v>
       </c>
       <c r="D4">
-        <v>1.035684889488325</v>
+        <v>0.9837994253372833</v>
       </c>
       <c r="E4">
-        <v>1.041279939445195</v>
+        <v>0.9909078031091714</v>
       </c>
       <c r="F4">
-        <v>1.049500404049909</v>
+        <v>0.993132245750616</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.023443335729026</v>
+        <v>1.045357368412754</v>
       </c>
       <c r="J4">
-        <v>1.037726867828675</v>
+        <v>0.9962306730213669</v>
       </c>
       <c r="K4">
-        <v>1.038169651329703</v>
+        <v>0.9940973912332406</v>
       </c>
       <c r="L4">
-        <v>1.043750624640979</v>
+        <v>1.001117215910692</v>
       </c>
       <c r="M4">
-        <v>1.051950700288228</v>
+        <v>1.003314271384055</v>
       </c>
       <c r="N4">
-        <v>1.039200559009927</v>
+        <v>0.9976454348463126</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.033614629190544</v>
+        <v>0.9782722738745823</v>
       </c>
       <c r="D5">
-        <v>1.036093770649095</v>
+        <v>0.9856894282036781</v>
       </c>
       <c r="E5">
-        <v>1.041676557336047</v>
+        <v>0.9927424072712415</v>
       </c>
       <c r="F5">
-        <v>1.049948288000721</v>
+        <v>0.9951824565088815</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.023416932628374</v>
+        <v>1.045368675785518</v>
       </c>
       <c r="J5">
-        <v>1.038060408364389</v>
+        <v>0.9977775629871797</v>
       </c>
       <c r="K5">
-        <v>1.03852572640306</v>
+        <v>0.9957346703572806</v>
       </c>
       <c r="L5">
-        <v>1.044094785471043</v>
+        <v>1.002702400082975</v>
       </c>
       <c r="M5">
-        <v>1.052346465061967</v>
+        <v>1.005113305250113</v>
       </c>
       <c r="N5">
-        <v>1.039534573211459</v>
+        <v>0.9991945215733077</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.033687173422782</v>
+        <v>0.9786184855027491</v>
       </c>
       <c r="D6">
-        <v>1.036162411617872</v>
+        <v>0.9860049559326967</v>
       </c>
       <c r="E6">
-        <v>1.041743138632082</v>
+        <v>0.9930486895507045</v>
       </c>
       <c r="F6">
-        <v>1.05002348064651</v>
+        <v>0.9955247566788457</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.023412460900047</v>
+        <v>1.04537027023839</v>
       </c>
       <c r="J6">
-        <v>1.038116389898298</v>
+        <v>0.9980356987763331</v>
       </c>
       <c r="K6">
-        <v>1.03858549403571</v>
+        <v>0.9960079217387047</v>
       </c>
       <c r="L6">
-        <v>1.044152551856734</v>
+        <v>1.002966952135627</v>
       </c>
       <c r="M6">
-        <v>1.052412900023368</v>
+        <v>1.005413596547618</v>
       </c>
       <c r="N6">
-        <v>1.039590634245568</v>
+        <v>0.9994530239448904</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.033188247747824</v>
+        <v>0.976225726696042</v>
       </c>
       <c r="D7">
-        <v>1.035690353785498</v>
+        <v>0.9838248022811146</v>
       </c>
       <c r="E7">
-        <v>1.041285239921015</v>
+        <v>0.9909324359970536</v>
       </c>
       <c r="F7">
-        <v>1.049506389307971</v>
+        <v>0.9931597720276</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.02344298551034</v>
+        <v>1.045357539874438</v>
       </c>
       <c r="J7">
-        <v>1.037731326050824</v>
+        <v>0.996251450464579</v>
       </c>
       <c r="K7">
-        <v>1.038174410495421</v>
+        <v>0.9941193806080184</v>
       </c>
       <c r="L7">
-        <v>1.043755224660984</v>
+        <v>1.001138505958933</v>
       </c>
       <c r="M7">
-        <v>1.051955989572085</v>
+        <v>1.003338430231411</v>
       </c>
       <c r="N7">
-        <v>1.039205023563263</v>
+        <v>0.9976662417958774</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.031100315779474</v>
+        <v>0.9659055656919452</v>
       </c>
       <c r="D8">
-        <v>1.033715438695404</v>
+        <v>0.974436045569255</v>
       </c>
       <c r="E8">
-        <v>1.039369420912191</v>
+        <v>0.9818194527766106</v>
       </c>
       <c r="F8">
-        <v>1.047343660600443</v>
+        <v>0.9829788360576179</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.023565007130014</v>
+        <v>1.045260356825638</v>
       </c>
       <c r="J8">
-        <v>1.036118676871632</v>
+        <v>0.9885512211688461</v>
       </c>
       <c r="K8">
-        <v>1.036453355580747</v>
+        <v>0.9859738049920342</v>
       </c>
       <c r="L8">
-        <v>1.042091556089259</v>
+        <v>0.9932514559177914</v>
       </c>
       <c r="M8">
-        <v>1.050043851354095</v>
+        <v>0.9943944152235283</v>
       </c>
       <c r="N8">
-        <v>1.037590084237263</v>
+        <v>0.9899550772913158</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.027411026080918</v>
+        <v>0.946339632239103</v>
       </c>
       <c r="D9">
-        <v>1.030228081309539</v>
+        <v>0.9566998830665281</v>
       </c>
       <c r="E9">
-        <v>1.03598589458151</v>
+        <v>0.9646079718147783</v>
       </c>
       <c r="F9">
-        <v>1.043526873432085</v>
+        <v>0.9637595051679511</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.023759139049229</v>
+        <v>1.044923609578788</v>
       </c>
       <c r="J9">
-        <v>1.033264644288842</v>
+        <v>0.9739407552041971</v>
       </c>
       <c r="K9">
-        <v>1.033409603510073</v>
+        <v>0.9705368437783455</v>
       </c>
       <c r="L9">
-        <v>1.039148518373584</v>
+        <v>0.9783026038021794</v>
       </c>
       <c r="M9">
-        <v>1.046665091508326</v>
+        <v>0.9774692625140251</v>
       </c>
       <c r="N9">
-        <v>1.034731998600844</v>
+        <v>0.9753238627891532</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.024944108354035</v>
+        <v>0.9321671191486506</v>
       </c>
       <c r="D10">
-        <v>1.027897741601418</v>
+        <v>0.9439052283984586</v>
       </c>
       <c r="E10">
-        <v>1.033724593018178</v>
+        <v>0.9521959724821151</v>
       </c>
       <c r="F10">
-        <v>1.040977882752944</v>
+        <v>0.9499024684928287</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.023874603872166</v>
+        <v>1.044587919160615</v>
       </c>
       <c r="J10">
-        <v>1.031353204922555</v>
+        <v>0.9633568714629859</v>
       </c>
       <c r="K10">
-        <v>1.031372540575155</v>
+        <v>0.9593669516657021</v>
       </c>
       <c r="L10">
-        <v>1.037178341101314</v>
+        <v>0.9674855337079346</v>
       </c>
       <c r="M10">
-        <v>1.044405789712117</v>
+        <v>0.9652392586748422</v>
       </c>
       <c r="N10">
-        <v>1.032817844771411</v>
+        <v>0.9647249487190409</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.023874016672766</v>
+        <v>0.9257083297708975</v>
       </c>
       <c r="D11">
-        <v>1.026887272776325</v>
+        <v>0.9380891751369045</v>
       </c>
       <c r="E11">
-        <v>1.032743979980414</v>
+        <v>0.9465552829124273</v>
       </c>
       <c r="F11">
-        <v>1.039872953408708</v>
+        <v>0.9436048811429575</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.023921309042974</v>
+        <v>1.0444161704399</v>
       </c>
       <c r="J11">
-        <v>1.030523353244349</v>
+        <v>0.9585352061905974</v>
       </c>
       <c r="K11">
-        <v>1.030488490769379</v>
+        <v>0.954281363283336</v>
       </c>
       <c r="L11">
-        <v>1.036323196263314</v>
+        <v>0.9625607335816186</v>
       </c>
       <c r="M11">
-        <v>1.04342575841341</v>
+        <v>0.95967490327962</v>
       </c>
       <c r="N11">
-        <v>1.031986814608636</v>
+        <v>0.9598964361289128</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.02347623975599</v>
+        <v>0.9232553553518185</v>
       </c>
       <c r="D12">
-        <v>1.0265117167408</v>
+        <v>0.9358827611955091</v>
       </c>
       <c r="E12">
-        <v>1.03237950838875</v>
+        <v>0.9444156526072953</v>
       </c>
       <c r="F12">
-        <v>1.039462342069674</v>
+        <v>0.9412159587873077</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.023938164268129</v>
+        <v>1.044348406001364</v>
       </c>
       <c r="J12">
-        <v>1.030214772162489</v>
+        <v>0.956704434631055</v>
       </c>
       <c r="K12">
-        <v>1.030159807381616</v>
+        <v>0.952350840551674</v>
       </c>
       <c r="L12">
-        <v>1.036005241231161</v>
+        <v>0.9606912933786401</v>
       </c>
       <c r="M12">
-        <v>1.043061459799598</v>
+        <v>0.9575632158548882</v>
       </c>
       <c r="N12">
-        <v>1.031677795306246</v>
+        <v>0.9580630646637635</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.023561577894622</v>
+        <v>0.9237840636994166</v>
       </c>
       <c r="D13">
-        <v>1.026592285036534</v>
+        <v>0.936358211608839</v>
       </c>
       <c r="E13">
-        <v>1.032457699267964</v>
+        <v>0.9448766997751165</v>
       </c>
       <c r="F13">
-        <v>1.039550428436437</v>
+        <v>0.9417307301876378</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.023934571058996</v>
+        <v>1.044363121405789</v>
       </c>
       <c r="J13">
-        <v>1.03028097925438</v>
+        <v>0.9570990116155866</v>
       </c>
       <c r="K13">
-        <v>1.030230325167483</v>
+        <v>0.9527668956255861</v>
       </c>
       <c r="L13">
-        <v>1.03607345811585</v>
+        <v>0.9610941817977682</v>
       </c>
       <c r="M13">
-        <v>1.043139615531749</v>
+        <v>0.9580182885154673</v>
       </c>
       <c r="N13">
-        <v>1.031744096419801</v>
+        <v>0.9584582019928718</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.023841142440326</v>
+        <v>0.9255067005831324</v>
       </c>
       <c r="D14">
-        <v>1.026856233803733</v>
+        <v>0.937907761485764</v>
       </c>
       <c r="E14">
-        <v>1.032713857357641</v>
+        <v>0.9463793548126957</v>
       </c>
       <c r="F14">
-        <v>1.039839016116396</v>
+        <v>0.9434084582756616</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.023922712353276</v>
+        <v>1.044410650012189</v>
       </c>
       <c r="J14">
-        <v>1.030497852766341</v>
+        <v>0.9583847106116132</v>
       </c>
       <c r="K14">
-        <v>1.03046132803334</v>
+        <v>0.9541226584960689</v>
       </c>
       <c r="L14">
-        <v>1.036296920502645</v>
+        <v>0.9624070491938956</v>
       </c>
       <c r="M14">
-        <v>1.04339565097078</v>
+        <v>0.9595012935936219</v>
       </c>
       <c r="N14">
-        <v>1.031961277917025</v>
+        <v>0.9597457268289445</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.024013351645638</v>
+        <v>0.9265607527685421</v>
       </c>
       <c r="D15">
-        <v>1.027018831506691</v>
+        <v>0.9388562345368503</v>
       </c>
       <c r="E15">
-        <v>1.03287165427383</v>
+        <v>0.9472991588060783</v>
       </c>
       <c r="F15">
-        <v>1.04001679881495</v>
+        <v>0.9444354096495738</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.023915340507297</v>
+        <v>1.044439407833738</v>
       </c>
       <c r="J15">
-        <v>1.030631430744718</v>
+        <v>0.9591714719388854</v>
       </c>
       <c r="K15">
-        <v>1.030603615442074</v>
+        <v>0.9549523546228573</v>
       </c>
       <c r="L15">
-        <v>1.036434560891633</v>
+        <v>0.9632105010937986</v>
       </c>
       <c r="M15">
-        <v>1.043553366593535</v>
+        <v>0.9604089347933352</v>
       </c>
       <c r="N15">
-        <v>1.032095045591453</v>
+        <v>0.960533605447544</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.02501508578135</v>
+        <v>0.9325885322831408</v>
       </c>
       <c r="D16">
-        <v>1.027964772385559</v>
+        <v>0.9442850295037167</v>
       </c>
       <c r="E16">
-        <v>1.033789641602625</v>
+        <v>0.9525643547690527</v>
       </c>
       <c r="F16">
-        <v>1.041051187050346</v>
+        <v>0.9503137403626668</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.023871434968932</v>
+        <v>1.044598761177637</v>
       </c>
       <c r="J16">
-        <v>1.031408232641062</v>
+        <v>0.9636715180766662</v>
       </c>
       <c r="K16">
-        <v>1.031431169375307</v>
+        <v>0.9596988840509031</v>
       </c>
       <c r="L16">
-        <v>1.03723505040118</v>
+        <v>0.9678069765796518</v>
       </c>
       <c r="M16">
-        <v>1.044470793666129</v>
+        <v>0.9656025196495374</v>
       </c>
       <c r="N16">
-        <v>1.032872950635591</v>
+        <v>0.965040042167003</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.025642930172392</v>
+        <v>0.9362797602781081</v>
       </c>
       <c r="D17">
-        <v>1.028557749781807</v>
+        <v>0.947613459677887</v>
       </c>
       <c r="E17">
-        <v>1.034365074542138</v>
+        <v>0.9557928792196205</v>
       </c>
       <c r="F17">
-        <v>1.041699702452389</v>
+        <v>0.953918120576799</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.023843013862359</v>
+        <v>1.044691650831722</v>
       </c>
       <c r="J17">
-        <v>1.031894908533826</v>
+        <v>0.9664277700794955</v>
       </c>
       <c r="K17">
-        <v>1.031949733322233</v>
+        <v>0.9626068988463626</v>
       </c>
       <c r="L17">
-        <v>1.037736622525416</v>
+        <v>0.9706231135535899</v>
       </c>
       <c r="M17">
-        <v>1.045045798800249</v>
+        <v>0.9687854372895587</v>
       </c>
       <c r="N17">
-        <v>1.033360317663944</v>
+        <v>0.967800208363823</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.026008958657824</v>
+        <v>0.9384021380649149</v>
       </c>
       <c r="D18">
-        <v>1.028903487495892</v>
+        <v>0.949528605360726</v>
       </c>
       <c r="E18">
-        <v>1.034700575159188</v>
+        <v>0.957650670144533</v>
       </c>
       <c r="F18">
-        <v>1.042077855533128</v>
+        <v>0.9559921783832658</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.023826118601784</v>
+        <v>1.044743285667331</v>
       </c>
       <c r="J18">
-        <v>1.032178568048326</v>
+        <v>0.9680127013520212</v>
       </c>
       <c r="K18">
-        <v>1.032252011703005</v>
+        <v>0.9642793830067745</v>
       </c>
       <c r="L18">
-        <v>1.038028984345275</v>
+        <v>0.9722427684921987</v>
       </c>
       <c r="M18">
-        <v>1.045381022494943</v>
+        <v>0.9706163912141503</v>
       </c>
       <c r="N18">
-        <v>1.033644380007492</v>
+        <v>0.9693873904205497</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.026133734307175</v>
+        <v>0.9391207685014763</v>
       </c>
       <c r="D19">
-        <v>1.029021352364181</v>
+        <v>0.9501772935606289</v>
       </c>
       <c r="E19">
-        <v>1.034814948799851</v>
+        <v>0.9582799523155324</v>
       </c>
       <c r="F19">
-        <v>1.042206776794717</v>
+        <v>0.9566947161606917</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.023820303822167</v>
+        <v>1.044760460044815</v>
       </c>
       <c r="J19">
-        <v>1.032275253207596</v>
+        <v>0.9685493735408525</v>
       </c>
       <c r="K19">
-        <v>1.032355048667241</v>
+        <v>0.9648457496030587</v>
       </c>
       <c r="L19">
-        <v>1.038128639072815</v>
+        <v>0.9727912465681944</v>
       </c>
       <c r="M19">
-        <v>1.04549529707875</v>
+        <v>0.9712364838192133</v>
       </c>
       <c r="N19">
-        <v>1.033741202470777</v>
+        <v>0.9699248247454465</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.025575587375706</v>
+        <v>0.9358869341500695</v>
       </c>
       <c r="D20">
-        <v>1.028494143056313</v>
+        <v>0.9472590991397891</v>
       </c>
       <c r="E20">
-        <v>1.03430335055181</v>
+        <v>0.9554491413184307</v>
       </c>
       <c r="F20">
-        <v>1.041630134861107</v>
+        <v>0.9535343674961078</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.023846096030143</v>
+        <v>1.044681948034609</v>
       </c>
       <c r="J20">
-        <v>1.031842714632577</v>
+        <v>0.9661344292199824</v>
       </c>
       <c r="K20">
-        <v>1.031894116161543</v>
+        <v>0.9622973766536175</v>
       </c>
       <c r="L20">
-        <v>1.037682828994939</v>
+        <v>0.9703233691730181</v>
       </c>
       <c r="M20">
-        <v>1.044984123545516</v>
+        <v>0.9684466171678668</v>
       </c>
       <c r="N20">
-        <v>1.033308049641369</v>
+        <v>0.9675064509266427</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.023758825949247</v>
+        <v>0.9250009633885942</v>
       </c>
       <c r="D21">
-        <v>1.026778513706073</v>
+        <v>0.9374527702997967</v>
       </c>
       <c r="E21">
-        <v>1.032638431564002</v>
+        <v>0.9459381258444125</v>
       </c>
       <c r="F21">
-        <v>1.039754039610723</v>
+        <v>0.9429158260767792</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.02392621804881</v>
+        <v>1.044396763635349</v>
       </c>
       <c r="J21">
-        <v>1.030433998302629</v>
+        <v>0.9580072372726798</v>
       </c>
       <c r="K21">
-        <v>1.030393312021792</v>
+        <v>0.953724602196935</v>
       </c>
       <c r="L21">
-        <v>1.036231125199006</v>
+        <v>0.9620215856674957</v>
       </c>
       <c r="M21">
-        <v>1.043320262487956</v>
+        <v>0.9590658627588464</v>
       </c>
       <c r="N21">
-        <v>1.03189733277265</v>
+        <v>0.9593677174345731</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.022614830413417</v>
+        <v>0.9178412973800749</v>
       </c>
       <c r="D22">
-        <v>1.02569853460044</v>
+        <v>0.9310177229626952</v>
       </c>
       <c r="E22">
-        <v>1.031590305474058</v>
+        <v>0.9396983966336201</v>
       </c>
       <c r="F22">
-        <v>1.038573351184446</v>
+        <v>0.9359487620560932</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.023973741382756</v>
+        <v>1.044194488544656</v>
       </c>
       <c r="J22">
-        <v>1.029546326963721</v>
+        <v>0.9526647144021619</v>
       </c>
       <c r="K22">
-        <v>1.029447910689423</v>
+        <v>0.9480918651771444</v>
       </c>
       <c r="L22">
-        <v>1.035316547709551</v>
+        <v>0.9565671885628266</v>
       </c>
       <c r="M22">
-        <v>1.042272551957323</v>
+        <v>0.9529056291156205</v>
       </c>
       <c r="N22">
-        <v>1.031008400838624</v>
+        <v>0.9540176075687831</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.023221451602035</v>
+        <v>0.9216687357341434</v>
       </c>
       <c r="D23">
-        <v>1.026271178097183</v>
+        <v>0.9344563450435135</v>
       </c>
       <c r="E23">
-        <v>1.032146065846888</v>
+        <v>0.9430324894552191</v>
       </c>
       <c r="F23">
-        <v>1.039199365696135</v>
+        <v>0.9396715957714896</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.023948818288664</v>
+        <v>1.044303897290665</v>
       </c>
       <c r="J23">
-        <v>1.030017086655979</v>
+        <v>0.9555204153155382</v>
       </c>
       <c r="K23">
-        <v>1.029949258237038</v>
+        <v>0.9511024388785316</v>
       </c>
       <c r="L23">
-        <v>1.035801559348375</v>
+        <v>0.9594824079514657</v>
       </c>
       <c r="M23">
-        <v>1.042828115832001</v>
+        <v>0.9561978234963844</v>
       </c>
       <c r="N23">
-        <v>1.031479829063642</v>
+        <v>0.9568773639050097</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.025606017250857</v>
+        <v>0.9360645296886217</v>
       </c>
       <c r="D24">
-        <v>1.028522884617911</v>
+        <v>0.9474193002588995</v>
       </c>
       <c r="E24">
-        <v>1.034331241397906</v>
+        <v>0.955604539700742</v>
       </c>
       <c r="F24">
-        <v>1.041661569816517</v>
+        <v>0.9537078561288641</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.023844704313072</v>
+        <v>1.04468634017905</v>
       </c>
       <c r="J24">
-        <v>1.031866299459807</v>
+        <v>0.9662670473241298</v>
       </c>
       <c r="K24">
-        <v>1.031919247753341</v>
+        <v>0.9624373093825276</v>
       </c>
       <c r="L24">
-        <v>1.037707136583794</v>
+        <v>0.9704588813874373</v>
       </c>
       <c r="M24">
-        <v>1.045011992454706</v>
+        <v>0.9685997941415477</v>
       </c>
       <c r="N24">
-        <v>1.033331667961758</v>
+        <v>0.9676392573637096</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.028366053722842</v>
+        <v>0.9515804956230316</v>
       </c>
       <c r="D25">
-        <v>1.031130566094371</v>
+        <v>0.9614424250668631</v>
       </c>
       <c r="E25">
-        <v>1.03686157032531</v>
+        <v>0.9692096372950803</v>
       </c>
       <c r="F25">
-        <v>1.044514348941245</v>
+        <v>0.9688972371378637</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.02371141742819</v>
+        <v>1.045030265302785</v>
       </c>
       <c r="J25">
-        <v>1.034003988974582</v>
+        <v>0.9778549552751384</v>
       </c>
       <c r="K25">
-        <v>1.034197842754595</v>
+        <v>0.9746703194745345</v>
       </c>
       <c r="L25">
-        <v>1.039910767128192</v>
+        <v>0.982305511276759</v>
       </c>
       <c r="M25">
-        <v>1.047539741011017</v>
+        <v>0.9819983683393274</v>
       </c>
       <c r="N25">
-        <v>1.035472393240841</v>
+        <v>0.9792436214731602</v>
       </c>
     </row>
   </sheetData>
